--- a/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-18,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-27,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,16%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,0; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 339,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,0; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-27,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-27,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 339,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 0,0</t>
+          <t>-70,4; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,0; 0,0</t>
+          <t>-70,4; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,06</t>
+          <t>0,0; 33,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 0,0</t>
+          <t>-45,35; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-75,0; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,46</t>
+          <t>0,0; 49,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 0,0</t>
+          <t>-45,35; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-75,0; 0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,24</t>
+          <t>0,0; 83,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 339,4</t>
+          <t>0,0; inf</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,19</t>
+          <t>0,0; 33,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,93</t>
+          <t>0,0; 51,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16B03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -704,7 +704,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-27,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-18,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,16%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 339,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,0; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,4; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,4; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-19,11%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 61,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-10,33</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-19,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-19,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 33,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-41,59; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-75,0; 0,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 51,29</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-41,59; 0,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-75,0; 0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
